--- a/CTROReporting/CTROReporting/Templates/Normal Template.xlsx
+++ b/CTROReporting/CTROReporting/Templates/Normal Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CAEDA8-7539-4583-944D-B2A9B20A24DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855021C5-4653-47DE-AB52-BD6635F8FA7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,17 +113,17 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -162,14 +162,14 @@
   <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NCI ID" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{400B38B0-A753-4923-81C6-75BD86E668A0}" name="NCT ID" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{AB6A8705-408E-458B-AE4A-53F805FEE447}" name="CTEP ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DCP ID" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OFFICIAL TITLE" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LEAD ORGANIZATION" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CURRENT TRIAL STATUS" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CURRENT TRIAL STATUS DATE" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PROCESSING STATUS" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{400B38B0-A753-4923-81C6-75BD86E668A0}" name="NCT ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AB6A8705-408E-458B-AE4A-53F805FEE447}" name="CTEP ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DCP ID" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OFFICIAL TITLE" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LEAD ORGANIZATION" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CURRENT TRIAL STATUS" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CURRENT TRIAL STATUS DATE" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PROCESSING STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,7 +476,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
